--- a/Champ de pissenlits et de sauge des pres.xlsx
+++ b/Champ de pissenlits et de sauge des pres.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrah\Desktop\laplatforme\Le Miel et Les Abeilles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64132A5-7460-4EAF-B463-7B4BD345F7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917B75B-BC56-4D1A-9689-011D0C194411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$B$1</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -298,13 +299,13 @@
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -312,7 +313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>796</v>
       </c>
@@ -320,7 +321,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>774</v>
       </c>
@@ -328,7 +329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>116</v>
       </c>
@@ -336,7 +337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>908</v>
       </c>
@@ -344,7 +345,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>708</v>
       </c>
@@ -352,7 +353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>444</v>
       </c>
@@ -360,7 +361,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>220</v>
       </c>
@@ -368,7 +369,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>501</v>
       </c>
@@ -376,7 +377,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>345</v>
       </c>
@@ -384,7 +385,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>628</v>
       </c>
@@ -392,7 +393,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>901</v>
       </c>
@@ -400,7 +401,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>436</v>
       </c>
@@ -408,7 +409,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>938</v>
       </c>
@@ -416,7 +417,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45</v>
       </c>
@@ -424,7 +425,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>837</v>
       </c>
@@ -432,7 +433,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>328</v>
       </c>
@@ -440,7 +441,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>278</v>
       </c>
@@ -448,7 +449,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>704</v>
       </c>
@@ -456,7 +457,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>101</v>
       </c>
@@ -464,7 +465,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>921</v>
       </c>
@@ -472,7 +473,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>493</v>
       </c>
@@ -480,7 +481,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>494</v>
       </c>
@@ -488,7 +489,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>929</v>
       </c>
@@ -496,7 +497,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>730</v>
       </c>
@@ -504,7 +505,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>528</v>
       </c>
@@ -512,7 +513,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>371</v>
       </c>
@@ -520,7 +521,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>98</v>
       </c>
@@ -528,7 +529,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>724</v>
       </c>
@@ -536,7 +537,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>573</v>
       </c>
@@ -544,7 +545,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>964</v>
       </c>
@@ -552,7 +553,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>213</v>
       </c>
@@ -560,7 +561,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>549</v>
       </c>
@@ -568,7 +569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>684</v>
       </c>
@@ -576,7 +577,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>273</v>
       </c>
@@ -584,7 +585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>897</v>
       </c>
@@ -592,7 +593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>508</v>
       </c>
@@ -600,7 +601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>758</v>
       </c>
@@ -608,7 +609,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>862</v>
       </c>
@@ -616,7 +617,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>898</v>
       </c>
@@ -624,7 +625,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -632,7 +633,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>951</v>
       </c>
@@ -640,7 +641,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>189</v>
       </c>
@@ -648,7 +649,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>602</v>
       </c>
@@ -656,7 +657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>437</v>
       </c>
@@ -664,7 +665,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>330</v>
       </c>
@@ -672,7 +673,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -680,7 +681,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>643</v>
       </c>
@@ -688,7 +689,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>875</v>
       </c>
@@ -696,7 +697,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>761</v>
       </c>
@@ -704,7 +705,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>276</v>
       </c>
@@ -1116,4 +1117,827 @@
   <autoFilter ref="A1:B1" xr:uid="{81338456-7D01-446A-A340-40A3E6638433}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C231D19-1205-4F05-8997-9A1686455A7F}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>796</v>
+      </c>
+      <c r="B2" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>774</v>
+      </c>
+      <c r="B3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>908</v>
+      </c>
+      <c r="B5" s="2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>708</v>
+      </c>
+      <c r="B6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>444</v>
+      </c>
+      <c r="B7" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>220</v>
+      </c>
+      <c r="B8" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>501</v>
+      </c>
+      <c r="B9" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>345</v>
+      </c>
+      <c r="B10" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>628</v>
+      </c>
+      <c r="B11" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>901</v>
+      </c>
+      <c r="B12" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>436</v>
+      </c>
+      <c r="B13" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>938</v>
+      </c>
+      <c r="B14" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>837</v>
+      </c>
+      <c r="B16" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>328</v>
+      </c>
+      <c r="B17" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>278</v>
+      </c>
+      <c r="B18" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>704</v>
+      </c>
+      <c r="B19" s="2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>921</v>
+      </c>
+      <c r="B21" s="2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>493</v>
+      </c>
+      <c r="B22" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>494</v>
+      </c>
+      <c r="B23" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>929</v>
+      </c>
+      <c r="B24" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>730</v>
+      </c>
+      <c r="B25" s="2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>528</v>
+      </c>
+      <c r="B26" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>371</v>
+      </c>
+      <c r="B27" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>98</v>
+      </c>
+      <c r="B28" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>724</v>
+      </c>
+      <c r="B29" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>573</v>
+      </c>
+      <c r="B30" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>964</v>
+      </c>
+      <c r="B31" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>213</v>
+      </c>
+      <c r="B32" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>549</v>
+      </c>
+      <c r="B33" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>684</v>
+      </c>
+      <c r="B34" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>273</v>
+      </c>
+      <c r="B35" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>897</v>
+      </c>
+      <c r="B36" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>508</v>
+      </c>
+      <c r="B37" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>758</v>
+      </c>
+      <c r="B38" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>862</v>
+      </c>
+      <c r="B39" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>898</v>
+      </c>
+      <c r="B40" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>951</v>
+      </c>
+      <c r="B42" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>189</v>
+      </c>
+      <c r="B43" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>602</v>
+      </c>
+      <c r="B44" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>437</v>
+      </c>
+      <c r="B45" s="2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>330</v>
+      </c>
+      <c r="B46" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>643</v>
+      </c>
+      <c r="B48" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>875</v>
+      </c>
+      <c r="B49" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>761</v>
+      </c>
+      <c r="B50" s="2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>276</v>
+      </c>
+      <c r="B51" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>310</v>
+      </c>
+      <c r="B52" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>130</v>
+      </c>
+      <c r="B53" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>69</v>
+      </c>
+      <c r="B54" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>534</v>
+      </c>
+      <c r="B55" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>99</v>
+      </c>
+      <c r="B56" s="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>428</v>
+      </c>
+      <c r="B57" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>307</v>
+      </c>
+      <c r="B58" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>287</v>
+      </c>
+      <c r="B59" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>560</v>
+      </c>
+      <c r="B60" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>311</v>
+      </c>
+      <c r="B61" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>639</v>
+      </c>
+      <c r="B62" s="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>619</v>
+      </c>
+      <c r="B63" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>646</v>
+      </c>
+      <c r="B64" s="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>549</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>787</v>
+      </c>
+      <c r="B66" s="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>489</v>
+      </c>
+      <c r="B67" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>434</v>
+      </c>
+      <c r="B68" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>995</v>
+      </c>
+      <c r="B69" s="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>482</v>
+      </c>
+      <c r="B70" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>964</v>
+      </c>
+      <c r="B71" s="1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>970</v>
+      </c>
+      <c r="B72" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>898</v>
+      </c>
+      <c r="B73" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>389</v>
+      </c>
+      <c r="B74" s="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>742</v>
+      </c>
+      <c r="B75" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>794</v>
+      </c>
+      <c r="B76" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>429</v>
+      </c>
+      <c r="B77" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>711</v>
+      </c>
+      <c r="B78" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>631</v>
+      </c>
+      <c r="B79" s="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>903</v>
+      </c>
+      <c r="B80" s="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>726</v>
+      </c>
+      <c r="B81" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>639</v>
+      </c>
+      <c r="B82" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>329</v>
+      </c>
+      <c r="B83" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>273</v>
+      </c>
+      <c r="B84" s="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>105</v>
+      </c>
+      <c r="B85" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>324</v>
+      </c>
+      <c r="B86" s="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>31</v>
+      </c>
+      <c r="B87" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>405</v>
+      </c>
+      <c r="B88" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>361</v>
+      </c>
+      <c r="B89" s="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>898</v>
+      </c>
+      <c r="B90" s="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>897</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>209</v>
+      </c>
+      <c r="B92" s="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>739</v>
+      </c>
+      <c r="B93" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>68</v>
+      </c>
+      <c r="B94" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>601</v>
+      </c>
+      <c r="B95" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>410</v>
+      </c>
+      <c r="B96" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>517</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>404</v>
+      </c>
+      <c r="B98" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>407</v>
+      </c>
+      <c r="B99" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>772</v>
+      </c>
+      <c r="B100" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>666</v>
+      </c>
+      <c r="B101" s="1">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>